--- a/docs/aop_burn_down.xlsx
+++ b/docs/aop_burn_down.xlsx
@@ -1,42 +1,103 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tepoulson/Documents/aop/aop_templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1521016481C\Documents\aop_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28720" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="630" windowWidth="27150" windowHeight="10830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$2:$N$44</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
   <si>
-    <t>col 2</t>
+    <t>FY17 Q2</t>
   </si>
   <si>
-    <t>col 1</t>
+    <t>FY17 Q3</t>
+  </si>
+  <si>
+    <t>FY17 Q4</t>
+  </si>
+  <si>
+    <t>FY18 Q1</t>
+  </si>
+  <si>
+    <t>FY18 Q2</t>
+  </si>
+  <si>
+    <t>FY18 Q3</t>
+  </si>
+  <si>
+    <t>FY18 Q4</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Mission:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides Sustainment Center Performance Assessment, Metrics Reporting, And Executive Decision Support.  Provides integrated, multi-level insight to performance of key sustainment business areas: worldwide supply chain management, depot maintenance, infrastructure support; conducts center-level analysis to assess &amp; recommend synchronized COAs to improve overall center performance; Indicates how well the Center is performing its mission and recommends opportunities for AFSC leadership to commit resources to improve future Center effectiveness and efficiency. 
+</t>
+  </si>
+  <si>
+    <t>DIV METs:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy;@"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -44,16 +105,67 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -61,21 +173,152 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -96,6 +339,34 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>AoP Implementation </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Burn Down Plan</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -110,12 +381,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -136,18 +404,10 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>col 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Plan</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -160,18 +420,30 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:f>Sheet1!$B$41:$H$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -182,18 +454,10 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>col 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Actual</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -206,18 +470,30 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$4</c:f>
+              <c:f>Sheet1!$B$42:$H$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>130.0</c:v>
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -233,24 +509,24 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2103434704"/>
-        <c:axId val="-2103427440"/>
+        <c:axId val="416035344"/>
+        <c:axId val="416036128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2103434704"/>
+        <c:axId val="416035344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="tx2">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -266,10 +542,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -279,7 +552,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2103427440"/>
+        <c:crossAx val="416036128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -287,7 +560,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2103427440"/>
+        <c:axId val="416036128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -297,7 +570,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="tx2">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -307,7 +580,57 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mission Essential Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -325,10 +648,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -338,7 +658,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2103434704"/>
+        <c:crossAx val="416035344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -368,10 +688,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -392,7 +709,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -460,33 +777,27 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -501,7 +812,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -509,7 +820,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -517,17 +828,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -536,9 +844,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -561,35 +868,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -598,33 +905,32 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="12700">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt2"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -640,21 +946,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -688,17 +989,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -707,14 +1008,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -726,26 +1026,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -759,17 +1053,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -778,17 +1071,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -797,17 +1090,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -816,27 +1108,24 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -844,11 +1133,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -856,17 +1153,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -875,12 +1172,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -889,14 +1183,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -905,10 +1199,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -917,7 +1208,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -938,10 +1229,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -950,14 +1238,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -966,20 +1248,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -992,6 +1274,129 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="38100"/>
+          <a:ext cx="10039350" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="190500"/>
+          <a:ext cx="7143750" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>&lt;&lt;enter</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" baseline="0">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> project name&gt;&gt; Burn Down Plan</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400" b="1">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1043,9 +1448,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1078,9 +1483,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1260,48 +1665,1276 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:U48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="9" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
+    <col min="17" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+    </row>
+    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="18"/>
+      <c r="M9" s="14">
+        <v>5</v>
+      </c>
+      <c r="N9" s="8"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+    </row>
+    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+      <c r="B39" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D39" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+    </row>
+    <row r="40" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+    </row>
+    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="2">
+        <v>2</v>
+      </c>
+      <c r="C41" s="3">
+        <v>6</v>
+      </c>
+      <c r="D41" s="3">
+        <v>6</v>
+      </c>
+      <c r="E41" s="3">
+        <v>5</v>
+      </c>
+      <c r="F41" s="3">
+        <v>5</v>
+      </c>
+      <c r="G41" s="3">
+        <v>5</v>
+      </c>
+      <c r="H41" s="3">
+        <v>5</v>
+      </c>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+    </row>
+    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="2">
+        <f>IF(SUMPRODUCT(--(Sheet2!B2:B4&lt;&gt;""))=0,B46,AVERAGE(Sheet2!B2:B4))</f>
+        <v>2</v>
+      </c>
+      <c r="C42" s="2">
+        <f>IF(SUMPRODUCT(--(Sheet2!E2:E4&lt;&gt;""))=0,C46,AVERAGE(Sheet2!E2:E4))</f>
+        <v>5</v>
+      </c>
+      <c r="D42" s="2">
+        <f>IF(SUMPRODUCT(--(Sheet2!H2:H4&lt;&gt;""))=0,D46,AVERAGE(Sheet2!H2:H4))</f>
+        <v>3</v>
+      </c>
+      <c r="E42" s="2">
+        <f>IF(SUMPRODUCT(--(Sheet2!K2:K4&lt;&gt;""))=0,E46,AVERAGE(Sheet2!K2:K4))</f>
+        <v>5</v>
+      </c>
+      <c r="F42" s="2">
+        <f>IF(SUMPRODUCT(--(Sheet2!N2:N4&lt;&gt;""))=0,F46,AVERAGE(Sheet2!N2:N4))</f>
+        <v>5</v>
+      </c>
+      <c r="G42" s="2">
+        <f>IF(SUMPRODUCT(--(Sheet2!Q2:Q4&lt;&gt;""))=0,G46,AVERAGE(Sheet2!Q2:Q4))</f>
+        <v>5</v>
+      </c>
+      <c r="H42" s="2">
+        <f>IF(SUMPRODUCT(--(Sheet2!T2:T4&lt;&gt;""))=0,H46,AVERAGE(Sheet2!T2:T4))</f>
+        <v>5</v>
+      </c>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+    </row>
+    <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="12" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="C45" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="D45" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="E45" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>130</v>
-      </c>
+      <c r="F45" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+    </row>
+    <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="13">
+        <v>2</v>
+      </c>
+      <c r="C46" s="13">
+        <v>3</v>
+      </c>
+      <c r="D46" s="13">
+        <v>3</v>
+      </c>
+      <c r="E46" s="13">
+        <v>5</v>
+      </c>
+      <c r="F46" s="13">
+        <v>5</v>
+      </c>
+      <c r="G46" s="13">
+        <v>5</v>
+      </c>
+      <c r="H46" s="13">
+        <v>5</v>
+      </c>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A8:B12"/>
+    <mergeCell ref="C8:J12"/>
+    <mergeCell ref="K9:L11"/>
+    <mergeCell ref="M9:M11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="D1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="20"/>
+      <c r="G1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="20"/>
+      <c r="J1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="20"/>
+      <c r="M1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="20"/>
+      <c r="P1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="20"/>
+      <c r="S1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="20"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>42826</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="D2" s="4">
+        <v>42917</v>
+      </c>
+      <c r="E2" s="5">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4">
+        <v>43009</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="J2" s="4">
+        <v>43101</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="M2" s="4">
+        <v>43191</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="P2" s="4">
+        <v>43282</v>
+      </c>
+      <c r="Q2" s="5"/>
+      <c r="S2" s="4">
+        <v>43374</v>
+      </c>
+      <c r="T2" s="5"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>42856</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="D3" s="4">
+        <v>42948</v>
+      </c>
+      <c r="E3" s="5">
+        <v>8</v>
+      </c>
+      <c r="G3" s="4">
+        <v>43040</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="J3" s="4">
+        <v>43132</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="M3" s="4">
+        <v>43221</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="P3" s="4">
+        <v>43313</v>
+      </c>
+      <c r="Q3" s="5"/>
+      <c r="S3" s="4">
+        <v>43405</v>
+      </c>
+      <c r="T3" s="5"/>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>42887</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="D4" s="6">
+        <v>42979</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2</v>
+      </c>
+      <c r="G4" s="6">
+        <v>43070</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="J4" s="6">
+        <v>43160</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="M4" s="6">
+        <v>43252</v>
+      </c>
+      <c r="N4" s="7"/>
+      <c r="P4" s="6">
+        <v>43344</v>
+      </c>
+      <c r="Q4" s="7"/>
+      <c r="S4" s="6">
+        <v>43435</v>
+      </c>
+      <c r="T4" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>